--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1448.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1448.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.671427148389987</v>
+        <v>1.238860845565796</v>
       </c>
       <c r="B1">
-        <v>1.95484541759953</v>
+        <v>2.451752901077271</v>
       </c>
       <c r="C1">
-        <v>2.514965776287632</v>
+        <v>4.79292106628418</v>
       </c>
       <c r="D1">
-        <v>2.883699251429567</v>
+        <v>3.122159719467163</v>
       </c>
       <c r="E1">
-        <v>0.6304548678928373</v>
+        <v>1.133920907974243</v>
       </c>
     </row>
   </sheetData>
